--- a/import biodata.xlsx
+++ b/import biodata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t xml:space="preserve">082253029068</t>
   </si>
@@ -64,6 +64,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2001</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000493920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029065</t>
   </si>
   <si>
@@ -73,6 +94,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2002</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3200493920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029062</t>
   </si>
   <si>
@@ -85,6 +127,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2003</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3040493920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029061</t>
   </si>
   <si>
@@ -94,6 +157,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2004</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000293920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029028</t>
   </si>
   <si>
@@ -103,6 +187,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2005</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000393920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FARIDAH MUNAWARAH</t>
   </si>
   <si>
@@ -112,6 +217,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2006</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000433920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029268</t>
   </si>
   <si>
@@ -121,6 +247,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2007</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000463920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253029008</t>
   </si>
   <si>
@@ -130,6 +277,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2008</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000499920871747,  114.58010193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253021068</t>
   </si>
   <si>
@@ -139,6 +307,27 @@
     <t xml:space="preserve">sknks-2132-dskdsan-2009</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000493820871747,  114.58019193072414</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">082253021060</t>
   </si>
   <si>
@@ -152,6 +341,27 @@
   </si>
   <si>
     <t xml:space="preserve">sknks-2132-dskdsan-2099</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3000493920171747,  114.58010193072414</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -163,7 +373,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +395,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,7 +469,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,10 +494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,11 +507,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="42.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,7 +537,7 @@
       <c r="G1" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -333,7 +555,7 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -345,8 +567,11 @@
       <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,10 +579,10 @@
         <v>1610131210003</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>3</v>
@@ -371,7 +596,7 @@
       <c r="G2" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -389,7 +614,7 @@
       <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -401,8 +626,11 @@
       <c r="Q2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>16</v>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,10 +638,10 @@
         <v>1610131210011</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>4</v>
@@ -427,7 +655,7 @@
       <c r="G3" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -443,9 +671,9 @@
         <v>8</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -457,8 +685,11 @@
       <c r="Q3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>20</v>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,10 +697,10 @@
         <v>1610131210017</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>5</v>
@@ -483,7 +714,7 @@
       <c r="G4" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -499,9 +730,9 @@
         <v>8</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -513,8 +744,11 @@
       <c r="Q4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>23</v>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,10 +756,10 @@
         <v>1610131210019</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>6</v>
@@ -539,7 +773,7 @@
       <c r="G5" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -555,9 +789,9 @@
         <v>8</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -569,8 +803,11 @@
       <c r="Q5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>26</v>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>7</v>
@@ -595,14 +832,14 @@
       <c r="G6" s="1" t="n">
         <v>3.3</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>7</v>
@@ -611,9 +848,9 @@
         <v>8</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -625,8 +862,11 @@
       <c r="Q6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>29</v>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,10 +874,10 @@
         <v>1610131220014</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>8</v>
@@ -651,14 +891,14 @@
       <c r="G7" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
@@ -667,9 +907,9 @@
         <v>8</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -681,8 +921,11 @@
       <c r="Q7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>32</v>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,10 +933,10 @@
         <v>1610131220018</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>9</v>
@@ -707,14 +950,14 @@
       <c r="G8" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -725,7 +968,7 @@
       <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O8" s="4" t="s">
@@ -737,8 +980,11 @@
       <c r="Q8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>35</v>
+      <c r="R8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,10 +992,10 @@
         <v>1610131310013</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>10</v>
@@ -763,7 +1009,7 @@
       <c r="G9" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -779,9 +1025,9 @@
         <v>8</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O9" s="4" t="s">
@@ -793,33 +1039,36 @@
       <c r="Q9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="0" t="s">
-        <v>38</v>
+      <c r="R9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>2110131310001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -835,9 +1084,9 @@
         <v>8</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O10" s="4" t="s">
@@ -849,8 +1098,11 @@
       <c r="Q10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>43</v>
+      <c r="R10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/import biodata.xlsx
+++ b/import biodata.xlsx
@@ -1,67 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12930" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
-    <t xml:space="preserve">082253029068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHMAD ZAINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banjar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laki-laki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALUMBANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KABUPATEN BALANGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KALIMANTAN SELATAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2001</t>
+    <t>082253029068</t>
+  </si>
+  <si>
+    <t>AHMAD ZAINI</t>
+  </si>
+  <si>
+    <t>2016-06-12</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>Banjar</t>
+  </si>
+  <si>
+    <t>2000-06-12</t>
+  </si>
+  <si>
+    <t>laki-laki</t>
+  </si>
+  <si>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>belum</t>
+  </si>
+  <si>
+    <t>GALUMBANG</t>
+  </si>
+  <si>
+    <t>JUAI</t>
+  </si>
+  <si>
+    <t>KABUPATEN BALANGAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2001</t>
   </si>
   <si>
     <r>
@@ -69,29 +64,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000493920871747,  114.58010193072414</t>
+      <t>3000493920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIEF PERMANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2002</t>
+    <t>082253029065</t>
+  </si>
+  <si>
+    <t>ARIEF PERMANA</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2002</t>
   </si>
   <si>
     <r>
@@ -99,32 +93,31 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3200493920871747,  114.58010193072414</t>
+      <t>3200493920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHAMMAD DRAJAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2003</t>
+    <t>082253029062</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DRAJAT</t>
+  </si>
+  <si>
+    <t>sudah</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2003</t>
   </si>
   <si>
     <r>
@@ -132,29 +125,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3040493920871747,  114.58010193072414</t>
+      <t>3040493920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIZALDI APRILIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2004</t>
+    <t>082253029061</t>
+  </si>
+  <si>
+    <t>RIZALDI APRILIAN</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2004</t>
   </si>
   <si>
     <r>
@@ -162,29 +154,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000293920871747,  114.58010193072414</t>
+      <t>3000293920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDODO SETIO SEJATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2005</t>
+    <t>082253029028</t>
+  </si>
+  <si>
+    <t>WIDODO SETIO SEJATI</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2005</t>
   </si>
   <si>
     <r>
@@ -192,29 +183,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000393920871747,  114.58010193072414</t>
+      <t>3000393920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FARIDAH MUNAWARAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perempuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2006</t>
+    <t>FARIDAH MUNAWARAH</t>
+  </si>
+  <si>
+    <t>perempuan</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2006</t>
   </si>
   <si>
     <r>
@@ -222,29 +212,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000433920871747,  114.58010193072414</t>
+      <t>3000433920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUR ANISA FITRIANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2007</t>
+    <t>082253029268</t>
+  </si>
+  <si>
+    <t>NUR ANISA FITRIANI</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2007</t>
   </si>
   <si>
     <r>
@@ -252,29 +241,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000463920871747,  114.58010193072414</t>
+      <t>3000463920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253029008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITI AISYAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2008</t>
+    <t>082253029008</t>
+  </si>
+  <si>
+    <t>SITI AISYAH</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2008</t>
   </si>
   <si>
     <r>
@@ -282,29 +270,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000499920871747,  114.58010193072414</t>
+      <t>3000499920871747,  114.58010193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253021068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHAMMAD RIDHANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2009</t>
+    <t>082253021068</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIDHANI</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2009</t>
   </si>
   <si>
     <r>
@@ -312,35 +299,34 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000493820871747,  114.58019193072414</t>
+      <t>3000493820871747,  114.58019193072414</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">082253021060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ari Yono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sknks-2132-dskdsan-2099</t>
+    <t>082253021060</t>
+  </si>
+  <si>
+    <t>Ari Yono</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>sknks-2132-dskdsan-2099</t>
   </si>
   <si>
     <r>
@@ -348,19 +334,18 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-3.</t>
+      <t>-3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3000493920171747,  114.58010193072414</t>
+      <t>3000493920171747,  114.58010193072414</t>
     </r>
   </si>
 </sst>
@@ -368,155 +353,984 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="42.6"/>
+    <col min="1" max="1" width="16.1166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.0416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.31666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.0166666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.0416666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1" style="1" customWidth="1"/>
+    <col min="19" max="19" width="42.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+    <row r="1" ht="28.5" spans="1:19">
+      <c r="A1" s="2">
         <v>1610131110001</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -525,7 +1339,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -534,7 +1348,7 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>3.5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -574,8 +1388,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="42.75" spans="1:19">
+      <c r="A2" s="2">
         <v>1610131210003</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -584,7 +1398,7 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -593,7 +1407,7 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>3.5</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -633,8 +1447,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="42.75" spans="1:19">
+      <c r="A3" s="2">
         <v>1610131210011</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -643,7 +1457,7 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -652,7 +1466,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>3.5</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -692,8 +1506,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="42.75" spans="1:19">
+      <c r="A4" s="2">
         <v>1610131210017</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -702,7 +1516,7 @@
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -711,7 +1525,7 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>3.5</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -751,8 +1565,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" ht="42.75" spans="1:19">
+      <c r="A5" s="2">
         <v>1610131210019</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -761,7 +1575,7 @@
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -770,7 +1584,7 @@
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>3.4</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -810,8 +1624,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="42.75" spans="1:19">
+      <c r="A6" s="2">
         <v>1610131220005</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -820,7 +1634,7 @@
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -829,7 +1643,7 @@
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>3.3</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -869,8 +1683,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="42.75" spans="1:19">
+      <c r="A7" s="2">
         <v>1610131220014</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -879,7 +1693,7 @@
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -888,7 +1702,7 @@
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>3.2</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -928,8 +1742,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="28.5" spans="1:19">
+      <c r="A8" s="2">
         <v>1610131220018</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -938,7 +1752,7 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -947,7 +1761,7 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>3.1</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -987,8 +1801,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="42.75" spans="1:19">
+      <c r="A9" s="2">
         <v>1610131310013</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -997,7 +1811,7 @@
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1006,7 +1820,7 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>2.9</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1046,8 +1860,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:19">
+      <c r="A10" s="2">
         <v>2110131310001</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1056,7 +1870,7 @@
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1065,7 +1879,7 @@
       <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>3.6</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1106,12 +1920,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>